--- a/gantt_diagram_insurance_project.xlsx
+++ b/gantt_diagram_insurance_project.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>Task</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Стоимость работы/день ($)</t>
+  </si>
+  <si>
+    <t>Специалист</t>
+  </si>
+  <si>
+    <t>Стоисмость работы/день($)</t>
   </si>
 </sst>
 </file>
@@ -338,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -732,11 +738,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -801,6 +833,339 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -816,338 +1181,35 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5274,8 +5336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5286,6 +5348,7 @@
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -5301,11 +5364,11 @@
       <c r="D1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5321,11 +5384,11 @@
         <f>C2 - B2</f>
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -5341,9 +5404,9 @@
         <f t="shared" ref="D3:D32" si="0">C3 - B3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -5359,9 +5422,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -5377,11 +5440,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -5397,9 +5460,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5415,9 +5478,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -5433,9 +5496,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -5451,9 +5514,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -5469,11 +5532,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -5489,9 +5552,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -5507,9 +5570,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -5525,9 +5588,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -5543,11 +5606,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -5563,9 +5626,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -5581,9 +5644,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -5599,9 +5662,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -5617,9 +5680,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -5635,11 +5698,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -5655,9 +5718,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -5673,9 +5736,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -5691,11 +5754,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -5711,9 +5774,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -5729,9 +5792,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -5747,9 +5810,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -5765,11 +5828,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -5785,9 +5848,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -5803,9 +5866,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -5821,11 +5884,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
@@ -5841,9 +5904,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
@@ -5859,9 +5922,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
@@ -5877,1102 +5940,1149 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="138" t="s">
+      <c r="A43" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="139" t="s">
+      <c r="B43" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="139" t="s">
+      <c r="C43" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="139" t="s">
+      <c r="D43" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="140" t="s">
+      <c r="E43" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141" t="s">
+      <c r="F43" s="129"/>
+      <c r="G43" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="142"/>
+      <c r="H43" s="134"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="130" t="s">
+      <c r="A44" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="132">
+      <c r="C44" s="69">
         <v>250</v>
       </c>
-      <c r="D44" s="132">
+      <c r="D44" s="69">
         <v>3</v>
       </c>
-      <c r="E44" s="133">
+      <c r="E44" s="130">
         <f xml:space="preserve"> C44 * D44</f>
         <v>750</v>
       </c>
-      <c r="F44" s="134"/>
-      <c r="G44" s="129">
+      <c r="F44" s="131"/>
+      <c r="G44" s="135">
         <f>SUM(E44:F68)</f>
         <v>59910</v>
       </c>
-      <c r="H44" s="137"/>
+      <c r="H44" s="136"/>
     </row>
     <row r="45" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="86"/>
+      <c r="B45" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="82">
+      <c r="C45" s="48">
         <v>300</v>
       </c>
-      <c r="D45" s="82">
+      <c r="D45" s="48">
         <v>3</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="132">
         <f t="shared" ref="E45:E68" si="1" xml:space="preserve"> C45 * D45</f>
         <v>900</v>
       </c>
-      <c r="F45" s="83"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="136"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="138"/>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="84">
+      <c r="C46" s="49">
         <v>300</v>
       </c>
-      <c r="D46" s="84">
+      <c r="D46" s="49">
         <v>3</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E46" s="113">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="F46" s="85"/>
-      <c r="G46" s="37"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="48" t="s">
+      <c r="A47" s="86"/>
+      <c r="B47" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="86">
+      <c r="C47" s="50">
         <v>250</v>
       </c>
-      <c r="D47" s="86">
+      <c r="D47" s="50">
         <v>3</v>
       </c>
-      <c r="E47" s="68">
+      <c r="E47" s="115">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="37"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="28"/>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="88">
+      <c r="C48" s="51">
         <v>350</v>
       </c>
-      <c r="D48" s="88">
+      <c r="D48" s="51">
         <v>5</v>
       </c>
-      <c r="E48" s="69">
+      <c r="E48" s="117">
         <f t="shared" si="1"/>
         <v>1750</v>
       </c>
-      <c r="F48" s="89"/>
-      <c r="G48" s="37"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="38" t="s">
+      <c r="A49" s="85"/>
+      <c r="B49" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="90">
+      <c r="C49" s="52">
         <v>320</v>
       </c>
-      <c r="D49" s="90">
+      <c r="D49" s="52">
         <v>5</v>
       </c>
-      <c r="E49" s="70">
+      <c r="E49" s="119">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="F49" s="91"/>
-      <c r="G49" s="37"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="52" t="s">
+      <c r="A50" s="86"/>
+      <c r="B50" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="92">
+      <c r="C50" s="53">
         <v>300</v>
       </c>
-      <c r="D50" s="92">
+      <c r="D50" s="53">
         <v>5</v>
       </c>
-      <c r="E50" s="71">
+      <c r="E50" s="121">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F50" s="93"/>
-      <c r="G50" s="37"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="28"/>
     </row>
     <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="94">
+      <c r="C51" s="54">
         <v>1050</v>
       </c>
-      <c r="D51" s="94">
+      <c r="D51" s="54">
         <v>12</v>
       </c>
-      <c r="E51" s="72">
+      <c r="E51" s="109">
         <f t="shared" si="1"/>
         <v>12600</v>
       </c>
-      <c r="F51" s="95"/>
-      <c r="G51" s="37"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="28"/>
     </row>
     <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="39" t="s">
+      <c r="A52" s="85"/>
+      <c r="B52" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="96">
+      <c r="C52" s="55">
         <v>960</v>
       </c>
-      <c r="D52" s="96">
+      <c r="D52" s="55">
         <v>12</v>
       </c>
-      <c r="E52" s="73">
+      <c r="E52" s="107">
         <f t="shared" si="1"/>
         <v>11520</v>
       </c>
-      <c r="F52" s="97"/>
-      <c r="G52" s="37"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="28"/>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="39" t="s">
+      <c r="A53" s="85"/>
+      <c r="B53" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="96">
+      <c r="C53" s="55">
         <v>300</v>
       </c>
-      <c r="D53" s="96">
+      <c r="D53" s="55">
         <v>4</v>
       </c>
-      <c r="E53" s="73">
+      <c r="E53" s="107">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F53" s="97"/>
-      <c r="G53" s="37"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="28"/>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="39" t="s">
+      <c r="A54" s="85"/>
+      <c r="B54" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="117">
+      <c r="C54" s="65">
         <v>220</v>
       </c>
-      <c r="D54" s="117">
+      <c r="D54" s="65">
         <v>21</v>
       </c>
-      <c r="E54" s="73">
+      <c r="E54" s="107">
         <f t="shared" ref="E54" si="2" xml:space="preserve"> C54 * D54</f>
         <v>4620</v>
       </c>
-      <c r="F54" s="97"/>
-      <c r="G54" s="37"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="28"/>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="143" t="s">
+      <c r="A55" s="85"/>
+      <c r="B55" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="117">
+      <c r="C55" s="65">
         <v>300</v>
       </c>
-      <c r="D55" s="117">
+      <c r="D55" s="65">
         <v>14</v>
       </c>
-      <c r="E55" s="115">
+      <c r="E55" s="111">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="F55" s="116"/>
-      <c r="G55" s="37"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="28"/>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="124" t="s">
+      <c r="A56" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="122">
+      <c r="C56" s="67">
         <v>300</v>
       </c>
-      <c r="D56" s="122">
+      <c r="D56" s="67">
         <v>2</v>
       </c>
-      <c r="E56" s="123">
+      <c r="E56" s="95">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F56" s="125"/>
-      <c r="G56" s="37"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="124"/>
-      <c r="B57" s="40" t="s">
+      <c r="A57" s="104"/>
+      <c r="B57" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="122">
+      <c r="C57" s="67">
         <v>250</v>
       </c>
-      <c r="D57" s="122">
+      <c r="D57" s="67">
         <v>26</v>
       </c>
-      <c r="E57" s="123">
+      <c r="E57" s="95">
         <f t="shared" ref="E57" si="3" xml:space="preserve"> C57 * D57</f>
         <v>6500</v>
       </c>
-      <c r="F57" s="125"/>
-      <c r="G57" s="37"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="28"/>
     </row>
     <row r="58" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="126"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="105"/>
+      <c r="B58" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="98">
+      <c r="C58" s="56">
         <v>220</v>
       </c>
-      <c r="D58" s="98">
+      <c r="D58" s="56">
         <v>4</v>
       </c>
-      <c r="E58" s="127">
+      <c r="E58" s="99">
         <f t="shared" si="1"/>
         <v>880</v>
       </c>
-      <c r="F58" s="128"/>
-      <c r="G58" s="37"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="28"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="119">
+      <c r="C59" s="66">
         <v>280</v>
       </c>
-      <c r="D59" s="119">
+      <c r="D59" s="66">
         <v>7</v>
       </c>
-      <c r="E59" s="120">
+      <c r="E59" s="101">
         <f t="shared" si="1"/>
         <v>1960</v>
       </c>
-      <c r="F59" s="121"/>
-      <c r="G59" s="37"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="28"/>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="85"/>
+      <c r="B60" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="99">
+      <c r="C60" s="57">
         <v>350</v>
       </c>
-      <c r="D60" s="99">
+      <c r="D60" s="57">
         <v>4</v>
       </c>
-      <c r="E60" s="74">
+      <c r="E60" s="87">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="F60" s="100"/>
-      <c r="G60" s="37"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="28"/>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="41" t="s">
+      <c r="A61" s="85"/>
+      <c r="B61" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="99">
+      <c r="C61" s="57">
         <v>320</v>
       </c>
-      <c r="D61" s="99">
+      <c r="D61" s="57">
         <v>2</v>
       </c>
-      <c r="E61" s="74">
+      <c r="E61" s="87">
         <f t="shared" si="1"/>
         <v>640</v>
       </c>
-      <c r="F61" s="100"/>
-      <c r="G61" s="37"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="28"/>
     </row>
     <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="57" t="s">
+      <c r="A62" s="86"/>
+      <c r="B62" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="101">
+      <c r="C62" s="58">
         <v>300</v>
       </c>
-      <c r="D62" s="101">
+      <c r="D62" s="58">
         <v>2</v>
       </c>
-      <c r="E62" s="75">
+      <c r="E62" s="89">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F62" s="102"/>
-      <c r="G62" s="37"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="28"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="103">
+      <c r="C63" s="59">
         <v>350</v>
       </c>
-      <c r="D63" s="103">
+      <c r="D63" s="59">
         <v>3</v>
       </c>
-      <c r="E63" s="76">
+      <c r="E63" s="91">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
-      <c r="F63" s="104"/>
-      <c r="G63" s="37"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="28"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="42" t="s">
+      <c r="A64" s="85"/>
+      <c r="B64" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="105">
+      <c r="C64" s="60">
         <v>300</v>
       </c>
-      <c r="D64" s="105">
+      <c r="D64" s="60">
         <v>4</v>
       </c>
-      <c r="E64" s="77">
+      <c r="E64" s="93">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F64" s="106"/>
-      <c r="G64" s="37"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="86"/>
+      <c r="B65" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="107">
+      <c r="C65" s="61">
         <v>300</v>
       </c>
-      <c r="D65" s="107">
+      <c r="D65" s="61">
         <v>2</v>
       </c>
-      <c r="E65" s="78">
+      <c r="E65" s="73">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F65" s="108"/>
-      <c r="G65" s="37"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="109">
+      <c r="C66" s="62">
         <v>300</v>
       </c>
-      <c r="D66" s="109">
+      <c r="D66" s="62">
         <v>5</v>
       </c>
-      <c r="E66" s="79">
+      <c r="E66" s="75">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F66" s="110"/>
-      <c r="G66" s="37"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="43" t="s">
+      <c r="A67" s="82"/>
+      <c r="B67" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="111">
+      <c r="C67" s="63">
         <v>250</v>
       </c>
-      <c r="D67" s="111">
+      <c r="D67" s="63">
         <v>1</v>
       </c>
-      <c r="E67" s="80">
+      <c r="E67" s="77">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="F67" s="112"/>
-      <c r="G67" s="37"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="63" t="s">
+      <c r="A68" s="83"/>
+      <c r="B68" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="113">
+      <c r="C68" s="64">
         <v>220</v>
       </c>
-      <c r="D68" s="113">
+      <c r="D68" s="64">
         <v>2</v>
       </c>
-      <c r="E68" s="81">
+      <c r="E68" s="79">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="F68" s="114"/>
-      <c r="G68" s="37"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="28"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+    </row>
+    <row r="71" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="153" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
+      <c r="A72" s="146" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="150">
+        <v>350</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
+      <c r="A73" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="151">
+        <v>320</v>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
+      <c r="A74" s="144" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="151">
+        <v>300</v>
+      </c>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
+      <c r="A75" s="144" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="151">
+        <v>300</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
+      <c r="A76" s="144" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="151">
+        <v>280</v>
+      </c>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
+      <c r="A77" s="144" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="151">
+        <v>250</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
+      <c r="A78" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="151">
+        <v>250</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
+      <c r="A79" s="144" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="151">
+        <v>220</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="145" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="152">
+        <v>220</v>
+      </c>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
+      <c r="A82" s="148"/>
+      <c r="B82" s="148"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
+      <c r="A83" s="149"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
+      <c r="A84" s="149"/>
+      <c r="B84" s="148"/>
+      <c r="C84" s="148"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
+      <c r="A85" s="149"/>
+      <c r="B85" s="148"/>
+      <c r="C85" s="148"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
+      <c r="A86" s="149"/>
+      <c r="B86" s="148"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
+      <c r="A87" s="149"/>
+      <c r="B87" s="148"/>
+      <c r="C87" s="148"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
+      <c r="A88" s="149"/>
+      <c r="B88" s="148"/>
+      <c r="C88" s="148"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
+      <c r="A89" s="149"/>
+      <c r="B89" s="148"/>
+      <c r="C89" s="148"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
+      <c r="A90" s="149"/>
+      <c r="B90" s="148"/>
+      <c r="C90" s="148"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
+      <c r="A91" s="149"/>
+      <c r="B91" s="148"/>
+      <c r="C91" s="148"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
+      <c r="A92" s="148"/>
+      <c r="B92" s="148"/>
+      <c r="C92" s="148"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
+      <c r="A115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="37"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="37"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="37"/>
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="37"/>
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="37"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="37"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="37"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="37"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E10:G13"/>
+    <mergeCell ref="E14:G18"/>
+    <mergeCell ref="E19:G21"/>
+    <mergeCell ref="E22:G25"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="E29:G32"/>
+    <mergeCell ref="E2:G4"/>
+    <mergeCell ref="E5:G9"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A46:A47"/>
@@ -6989,24 +7099,17 @@
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E10:G13"/>
-    <mergeCell ref="E14:G18"/>
-    <mergeCell ref="E19:G21"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="E22:G25"/>
-    <mergeCell ref="E26:G28"/>
-    <mergeCell ref="E29:G32"/>
-    <mergeCell ref="E2:G4"/>
-    <mergeCell ref="E5:G9"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A63:A65"/>
   </mergeCells>
   <conditionalFormatting sqref="A1">
     <cfRule type="dataBar" priority="2">
